--- a/medicine/Enfance/Alice_et_la_Rivière_souterraine/Alice_et_la_Rivière_souterraine.xlsx
+++ b/medicine/Enfance/Alice_et_la_Rivière_souterraine/Alice_et_la_Rivière_souterraine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_la_Rivi%C3%A8re_souterraine</t>
+          <t>Alice_et_la_Rivière_souterraine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et la Rivière souterraine (titre original : The Secret of the Forgotten City, littéralement : « Le secret de la ville oubliée ») est le cinquante-deuxième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams.
+Alice et la Rivière souterraine (titre original : The Secret of the Forgotten City, littéralement : « Le secret de la ville oubliée ») est le cinquante-deuxième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams.
 Aux États-Unis, le roman a été publié pour la première fois en 1975 par Grosset &amp; Dunlap, New York. En France, il a paru pour la première fois en 1979 chez Hachette Jeunesse dans la collection « Bibliothèque verte ». Il n'a plus été réédité en France depuis l'an 2000.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_la_Rivi%C3%A8re_souterraine</t>
+          <t>Alice_et_la_Rivière_souterraine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1979 en langue française.
 Mise en place de l'intrigue (chapitres 1 à 5)
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_la_Rivi%C3%A8re_souterraine</t>
+          <t>Alice_et_la_Rivière_souterraine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,11 +566,13 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Alice Roy : dix-huit ans, détective amateur blonde, fille de James Roy, orpheline de mère.
-James Roy : avoué[2] de renom, père d'Alice Roy, veuf.
+James Roy : avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor : jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb : jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson : jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice_et_la_Rivi%C3%A8re_souterraine</t>
+          <t>Alice_et_la_Rivière_souterraine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,13 +613,15 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1979 : Hachette, collection Bibliothèque verte, cartonné (français, version originale). Couverture de Jean Sidobre, illustrations intérieures de Daniel Billon. Texte français d'Anne Joba. 20 chapitres. 182 p. 
 1984 : Hachette, collection Bibliothèque verte, cartonné (français, version originale). Nouvelle couverture de Jean Sidobre, illustrations intérieures de Daniel Billon. Texte français d'Anne Joba. 20 chapitres. 182 p. 
 1989 : Hachette, collection Bibliothèque verte no 460, souple (français, version originale). Couverture de Jean Sidobre, illustrations intérieures de Daniel Billon.
 1992 : Hachette, collection Bibliothèque verte, souple (français, version originale). Illustré par Philippe Daure.
-2000 : Hachette, collection Bibliothèque verte[3], souple (français, version originale). Illustré par Philippe Daure.</t>
+2000 : Hachette, collection Bibliothèque verte, souple (français, version originale). Illustré par Philippe Daure.</t>
         </is>
       </c>
     </row>
